--- a/data.xlsx
+++ b/data.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E689"/>
+  <dimension ref="A1:E699"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -12120,16 +12120,186 @@
         <v>A</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>1/3/2025, 2:54:40 pm</v>
+      </c>
+      <c r="B690" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C690">
+        <v>75</v>
+      </c>
+      <c r="D690">
+        <v>7500</v>
+      </c>
+      <c r="E690" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>1/3/2025, 2:54:45 pm</v>
+      </c>
+      <c r="B691" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C691">
+        <v>80</v>
+      </c>
+      <c r="D691">
+        <v>8000</v>
+      </c>
+      <c r="E691" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>1/3/2025, 2:54:49 pm</v>
+      </c>
+      <c r="B692" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C692">
+        <v>60</v>
+      </c>
+      <c r="D692">
+        <v>6000</v>
+      </c>
+      <c r="E692" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>1/3/2025, 2:54:54 pm</v>
+      </c>
+      <c r="B693" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C693">
+        <v>65</v>
+      </c>
+      <c r="D693">
+        <v>6500</v>
+      </c>
+      <c r="E693" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>1/3/2025, 2:54:58 pm</v>
+      </c>
+      <c r="B694" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C694">
+        <v>70</v>
+      </c>
+      <c r="D694">
+        <v>7000</v>
+      </c>
+      <c r="E694" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>1/3/2025, 2:55:02 pm</v>
+      </c>
+      <c r="B695" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C695">
+        <v>75</v>
+      </c>
+      <c r="D695">
+        <v>7500</v>
+      </c>
+      <c r="E695" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="str">
+        <v>1/3/2025, 2:55:07 pm</v>
+      </c>
+      <c r="B696" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C696">
+        <v>80</v>
+      </c>
+      <c r="D696">
+        <v>8000</v>
+      </c>
+      <c r="E696" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="str">
+        <v>1/3/2025, 2:55:11 pm</v>
+      </c>
+      <c r="B697" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C697">
+        <v>60</v>
+      </c>
+      <c r="D697">
+        <v>6000</v>
+      </c>
+      <c r="E697" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="str">
+        <v>1/3/2025, 2:55:16 pm</v>
+      </c>
+      <c r="B698" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C698">
+        <v>65</v>
+      </c>
+      <c r="D698">
+        <v>6500</v>
+      </c>
+      <c r="E698" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="str">
+        <v>1/3/2025, 2:55:20 pm</v>
+      </c>
+      <c r="B699" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C699">
+        <v>70</v>
+      </c>
+      <c r="D699">
+        <v>7000</v>
+      </c>
+      <c r="E699" t="str">
+        <v>A</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E689"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E699"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E688"/>
+  <dimension ref="A1:E698"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -23830,16 +24000,186 @@
         <v>A</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v>1/3/2025, 2:54:41 pm</v>
+      </c>
+      <c r="B689" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C689">
+        <v>65</v>
+      </c>
+      <c r="D689">
+        <v>6500</v>
+      </c>
+      <c r="E689" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>1/3/2025, 2:54:45 pm</v>
+      </c>
+      <c r="B690" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C690">
+        <v>70</v>
+      </c>
+      <c r="D690">
+        <v>7000</v>
+      </c>
+      <c r="E690" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>1/3/2025, 2:54:49 pm</v>
+      </c>
+      <c r="B691" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C691">
+        <v>50</v>
+      </c>
+      <c r="D691">
+        <v>5000</v>
+      </c>
+      <c r="E691" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>1/3/2025, 2:54:54 pm</v>
+      </c>
+      <c r="B692" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C692">
+        <v>55</v>
+      </c>
+      <c r="D692">
+        <v>5500</v>
+      </c>
+      <c r="E692" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>1/3/2025, 2:54:58 pm</v>
+      </c>
+      <c r="B693" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C693">
+        <v>60</v>
+      </c>
+      <c r="D693">
+        <v>6000</v>
+      </c>
+      <c r="E693" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>1/3/2025, 2:55:03 pm</v>
+      </c>
+      <c r="B694" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C694">
+        <v>65</v>
+      </c>
+      <c r="D694">
+        <v>6500</v>
+      </c>
+      <c r="E694" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>1/3/2025, 2:55:07 pm</v>
+      </c>
+      <c r="B695" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C695">
+        <v>70</v>
+      </c>
+      <c r="D695">
+        <v>7000</v>
+      </c>
+      <c r="E695" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="str">
+        <v>1/3/2025, 2:55:11 pm</v>
+      </c>
+      <c r="B696" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C696">
+        <v>50</v>
+      </c>
+      <c r="D696">
+        <v>5000</v>
+      </c>
+      <c r="E696" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="str">
+        <v>1/3/2025, 2:55:16 pm</v>
+      </c>
+      <c r="B697" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C697">
+        <v>55</v>
+      </c>
+      <c r="D697">
+        <v>5500</v>
+      </c>
+      <c r="E697" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="str">
+        <v>1/3/2025, 2:55:20 pm</v>
+      </c>
+      <c r="B698" t="str">
+        <v>MN</v>
+      </c>
+      <c r="C698">
+        <v>60</v>
+      </c>
+      <c r="D698">
+        <v>6000</v>
+      </c>
+      <c r="E698" t="str">
+        <v>A</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E688"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E698"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C689"/>
+  <dimension ref="A1:C699"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -31423,16 +31763,126 @@
         <v>14830</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>1/3/2025, 2:54:41 pm</v>
+      </c>
+      <c r="B690">
+        <v>1.28</v>
+      </c>
+      <c r="C690">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>1/3/2025, 2:54:45 pm</v>
+      </c>
+      <c r="B691">
+        <v>1.28</v>
+      </c>
+      <c r="C691">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>1/3/2025, 2:54:49 pm</v>
+      </c>
+      <c r="B692">
+        <v>1.28</v>
+      </c>
+      <c r="C692">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>1/3/2025, 2:54:54 pm</v>
+      </c>
+      <c r="B693">
+        <v>1.28</v>
+      </c>
+      <c r="C693">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>1/3/2025, 2:54:58 pm</v>
+      </c>
+      <c r="B694">
+        <v>1.28</v>
+      </c>
+      <c r="C694">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>1/3/2025, 2:55:03 pm</v>
+      </c>
+      <c r="B695">
+        <v>1.28</v>
+      </c>
+      <c r="C695">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="str">
+        <v>1/3/2025, 2:55:07 pm</v>
+      </c>
+      <c r="B696">
+        <v>1.28</v>
+      </c>
+      <c r="C696">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="str">
+        <v>1/3/2025, 2:55:11 pm</v>
+      </c>
+      <c r="B697">
+        <v>1.28</v>
+      </c>
+      <c r="C697">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="str">
+        <v>1/3/2025, 2:55:16 pm</v>
+      </c>
+      <c r="B698">
+        <v>1.28</v>
+      </c>
+      <c r="C698">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="str">
+        <v>1/3/2025, 2:55:20 pm</v>
+      </c>
+      <c r="B699">
+        <v>1.28</v>
+      </c>
+      <c r="C699">
+        <v>14830</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C689"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C699"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C688"/>
+  <dimension ref="A1:C698"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -39005,16 +39455,126 @@
         <v>A</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v>1/3/2025, 2:54:41 pm</v>
+      </c>
+      <c r="B689" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C689" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>1/3/2025, 2:54:45 pm</v>
+      </c>
+      <c r="B690" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C690" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>1/3/2025, 2:54:49 pm</v>
+      </c>
+      <c r="B691" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C691" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>1/3/2025, 2:54:54 pm</v>
+      </c>
+      <c r="B692" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C692" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>1/3/2025, 2:54:58 pm</v>
+      </c>
+      <c r="B693" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C693" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>1/3/2025, 2:55:03 pm</v>
+      </c>
+      <c r="B694" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C694" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>1/3/2025, 2:55:07 pm</v>
+      </c>
+      <c r="B695" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C695" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="str">
+        <v>1/3/2025, 2:55:12 pm</v>
+      </c>
+      <c r="B696" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C696" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="str">
+        <v>1/3/2025, 2:55:16 pm</v>
+      </c>
+      <c r="B697" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C697" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="str">
+        <v>1/3/2025, 2:55:21 pm</v>
+      </c>
+      <c r="B698" t="str">
+        <v>SN</v>
+      </c>
+      <c r="C698" t="str">
+        <v>A</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C688"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C698"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B685"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -44499,16 +45059,96 @@
         <v>BN</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" t="str">
+        <v>1/3/2025, 2:54:41 pm</v>
+      </c>
+      <c r="B686" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="str">
+        <v>1/3/2025, 2:54:45 pm</v>
+      </c>
+      <c r="B687" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="str">
+        <v>1/3/2025, 2:54:49 pm</v>
+      </c>
+      <c r="B688" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v>1/3/2025, 2:54:54 pm</v>
+      </c>
+      <c r="B689" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>1/3/2025, 2:54:58 pm</v>
+      </c>
+      <c r="B690" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>1/3/2025, 2:55:03 pm</v>
+      </c>
+      <c r="B691" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>1/3/2025, 2:55:07 pm</v>
+      </c>
+      <c r="B692" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>1/3/2025, 2:55:12 pm</v>
+      </c>
+      <c r="B693" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>1/3/2025, 2:55:16 pm</v>
+      </c>
+      <c r="B694" t="str">
+        <v>BN</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>1/3/2025, 2:55:21 pm</v>
+      </c>
+      <c r="B695" t="str">
+        <v>BN</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B685"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B695"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B685"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -49993,9 +50633,89 @@
         <v>RN</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" t="str">
+        <v>1/3/2025, 2:54:41 pm</v>
+      </c>
+      <c r="B686" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="str">
+        <v>1/3/2025, 2:54:45 pm</v>
+      </c>
+      <c r="B687" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="str">
+        <v>1/3/2025, 2:54:50 pm</v>
+      </c>
+      <c r="B688" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v>1/3/2025, 2:54:54 pm</v>
+      </c>
+      <c r="B689" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>1/3/2025, 2:54:58 pm</v>
+      </c>
+      <c r="B690" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>1/3/2025, 2:55:03 pm</v>
+      </c>
+      <c r="B691" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>1/3/2025, 2:55:07 pm</v>
+      </c>
+      <c r="B692" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>1/3/2025, 2:55:12 pm</v>
+      </c>
+      <c r="B693" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>1/3/2025, 2:55:16 pm</v>
+      </c>
+      <c r="B694" t="str">
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>1/3/2025, 2:55:21 pm</v>
+      </c>
+      <c r="B695" t="str">
+        <v>RN</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B685"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B695"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E699"/>
+  <dimension ref="A1:E689"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -12120,186 +12120,16 @@
         <v>A</v>
       </c>
     </row>
-    <row r="690">
-      <c r="A690" t="str">
-        <v>1/3/2025, 2:54:40 pm</v>
-      </c>
-      <c r="B690" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C690">
-        <v>75</v>
-      </c>
-      <c r="D690">
-        <v>7500</v>
-      </c>
-      <c r="E690" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="str">
-        <v>1/3/2025, 2:54:45 pm</v>
-      </c>
-      <c r="B691" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C691">
-        <v>80</v>
-      </c>
-      <c r="D691">
-        <v>8000</v>
-      </c>
-      <c r="E691" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="str">
-        <v>1/3/2025, 2:54:49 pm</v>
-      </c>
-      <c r="B692" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C692">
-        <v>60</v>
-      </c>
-      <c r="D692">
-        <v>6000</v>
-      </c>
-      <c r="E692" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="str">
-        <v>1/3/2025, 2:54:54 pm</v>
-      </c>
-      <c r="B693" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C693">
-        <v>65</v>
-      </c>
-      <c r="D693">
-        <v>6500</v>
-      </c>
-      <c r="E693" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="str">
-        <v>1/3/2025, 2:54:58 pm</v>
-      </c>
-      <c r="B694" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C694">
-        <v>70</v>
-      </c>
-      <c r="D694">
-        <v>7000</v>
-      </c>
-      <c r="E694" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="str">
-        <v>1/3/2025, 2:55:02 pm</v>
-      </c>
-      <c r="B695" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C695">
-        <v>75</v>
-      </c>
-      <c r="D695">
-        <v>7500</v>
-      </c>
-      <c r="E695" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="str">
-        <v>1/3/2025, 2:55:07 pm</v>
-      </c>
-      <c r="B696" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C696">
-        <v>80</v>
-      </c>
-      <c r="D696">
-        <v>8000</v>
-      </c>
-      <c r="E696" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="str">
-        <v>1/3/2025, 2:55:11 pm</v>
-      </c>
-      <c r="B697" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C697">
-        <v>60</v>
-      </c>
-      <c r="D697">
-        <v>6000</v>
-      </c>
-      <c r="E697" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="str">
-        <v>1/3/2025, 2:55:16 pm</v>
-      </c>
-      <c r="B698" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C698">
-        <v>65</v>
-      </c>
-      <c r="D698">
-        <v>6500</v>
-      </c>
-      <c r="E698" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="str">
-        <v>1/3/2025, 2:55:20 pm</v>
-      </c>
-      <c r="B699" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C699">
-        <v>70</v>
-      </c>
-      <c r="D699">
-        <v>7000</v>
-      </c>
-      <c r="E699" t="str">
-        <v>A</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E699"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E689"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E698"/>
+  <dimension ref="A1:E688"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -24000,186 +23830,16 @@
         <v>A</v>
       </c>
     </row>
-    <row r="689">
-      <c r="A689" t="str">
-        <v>1/3/2025, 2:54:41 pm</v>
-      </c>
-      <c r="B689" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C689">
-        <v>65</v>
-      </c>
-      <c r="D689">
-        <v>6500</v>
-      </c>
-      <c r="E689" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="str">
-        <v>1/3/2025, 2:54:45 pm</v>
-      </c>
-      <c r="B690" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C690">
-        <v>70</v>
-      </c>
-      <c r="D690">
-        <v>7000</v>
-      </c>
-      <c r="E690" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="str">
-        <v>1/3/2025, 2:54:49 pm</v>
-      </c>
-      <c r="B691" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C691">
-        <v>50</v>
-      </c>
-      <c r="D691">
-        <v>5000</v>
-      </c>
-      <c r="E691" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="str">
-        <v>1/3/2025, 2:54:54 pm</v>
-      </c>
-      <c r="B692" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C692">
-        <v>55</v>
-      </c>
-      <c r="D692">
-        <v>5500</v>
-      </c>
-      <c r="E692" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="str">
-        <v>1/3/2025, 2:54:58 pm</v>
-      </c>
-      <c r="B693" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C693">
-        <v>60</v>
-      </c>
-      <c r="D693">
-        <v>6000</v>
-      </c>
-      <c r="E693" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="str">
-        <v>1/3/2025, 2:55:03 pm</v>
-      </c>
-      <c r="B694" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C694">
-        <v>65</v>
-      </c>
-      <c r="D694">
-        <v>6500</v>
-      </c>
-      <c r="E694" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="str">
-        <v>1/3/2025, 2:55:07 pm</v>
-      </c>
-      <c r="B695" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C695">
-        <v>70</v>
-      </c>
-      <c r="D695">
-        <v>7000</v>
-      </c>
-      <c r="E695" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="str">
-        <v>1/3/2025, 2:55:11 pm</v>
-      </c>
-      <c r="B696" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C696">
-        <v>50</v>
-      </c>
-      <c r="D696">
-        <v>5000</v>
-      </c>
-      <c r="E696" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="str">
-        <v>1/3/2025, 2:55:16 pm</v>
-      </c>
-      <c r="B697" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C697">
-        <v>55</v>
-      </c>
-      <c r="D697">
-        <v>5500</v>
-      </c>
-      <c r="E697" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="str">
-        <v>1/3/2025, 2:55:20 pm</v>
-      </c>
-      <c r="B698" t="str">
-        <v>MN</v>
-      </c>
-      <c r="C698">
-        <v>60</v>
-      </c>
-      <c r="D698">
-        <v>6000</v>
-      </c>
-      <c r="E698" t="str">
-        <v>A</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E698"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E688"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C689"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -31763,126 +31423,16 @@
         <v>14830</v>
       </c>
     </row>
-    <row r="690">
-      <c r="A690" t="str">
-        <v>1/3/2025, 2:54:41 pm</v>
-      </c>
-      <c r="B690">
-        <v>1.28</v>
-      </c>
-      <c r="C690">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="str">
-        <v>1/3/2025, 2:54:45 pm</v>
-      </c>
-      <c r="B691">
-        <v>1.28</v>
-      </c>
-      <c r="C691">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="str">
-        <v>1/3/2025, 2:54:49 pm</v>
-      </c>
-      <c r="B692">
-        <v>1.28</v>
-      </c>
-      <c r="C692">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="str">
-        <v>1/3/2025, 2:54:54 pm</v>
-      </c>
-      <c r="B693">
-        <v>1.28</v>
-      </c>
-      <c r="C693">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="str">
-        <v>1/3/2025, 2:54:58 pm</v>
-      </c>
-      <c r="B694">
-        <v>1.28</v>
-      </c>
-      <c r="C694">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="str">
-        <v>1/3/2025, 2:55:03 pm</v>
-      </c>
-      <c r="B695">
-        <v>1.28</v>
-      </c>
-      <c r="C695">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="str">
-        <v>1/3/2025, 2:55:07 pm</v>
-      </c>
-      <c r="B696">
-        <v>1.28</v>
-      </c>
-      <c r="C696">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="str">
-        <v>1/3/2025, 2:55:11 pm</v>
-      </c>
-      <c r="B697">
-        <v>1.28</v>
-      </c>
-      <c r="C697">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="str">
-        <v>1/3/2025, 2:55:16 pm</v>
-      </c>
-      <c r="B698">
-        <v>1.28</v>
-      </c>
-      <c r="C698">
-        <v>14830</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="str">
-        <v>1/3/2025, 2:55:20 pm</v>
-      </c>
-      <c r="B699">
-        <v>1.28</v>
-      </c>
-      <c r="C699">
-        <v>14830</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C699"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C689"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C698"/>
+  <dimension ref="A1:C688"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -39455,126 +39005,16 @@
         <v>A</v>
       </c>
     </row>
-    <row r="689">
-      <c r="A689" t="str">
-        <v>1/3/2025, 2:54:41 pm</v>
-      </c>
-      <c r="B689" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C689" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="str">
-        <v>1/3/2025, 2:54:45 pm</v>
-      </c>
-      <c r="B690" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C690" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="str">
-        <v>1/3/2025, 2:54:49 pm</v>
-      </c>
-      <c r="B691" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C691" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="str">
-        <v>1/3/2025, 2:54:54 pm</v>
-      </c>
-      <c r="B692" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C692" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="str">
-        <v>1/3/2025, 2:54:58 pm</v>
-      </c>
-      <c r="B693" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C693" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="str">
-        <v>1/3/2025, 2:55:03 pm</v>
-      </c>
-      <c r="B694" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C694" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="str">
-        <v>1/3/2025, 2:55:07 pm</v>
-      </c>
-      <c r="B695" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C695" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="str">
-        <v>1/3/2025, 2:55:12 pm</v>
-      </c>
-      <c r="B696" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C696" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="str">
-        <v>1/3/2025, 2:55:16 pm</v>
-      </c>
-      <c r="B697" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C697" t="str">
-        <v>A</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="str">
-        <v>1/3/2025, 2:55:21 pm</v>
-      </c>
-      <c r="B698" t="str">
-        <v>SN</v>
-      </c>
-      <c r="C698" t="str">
-        <v>A</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C698"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C688"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B695"/>
+  <dimension ref="A1:B685"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -45059,96 +44499,16 @@
         <v>BN</v>
       </c>
     </row>
-    <row r="686">
-      <c r="A686" t="str">
-        <v>1/3/2025, 2:54:41 pm</v>
-      </c>
-      <c r="B686" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="str">
-        <v>1/3/2025, 2:54:45 pm</v>
-      </c>
-      <c r="B687" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="str">
-        <v>1/3/2025, 2:54:49 pm</v>
-      </c>
-      <c r="B688" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="str">
-        <v>1/3/2025, 2:54:54 pm</v>
-      </c>
-      <c r="B689" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="str">
-        <v>1/3/2025, 2:54:58 pm</v>
-      </c>
-      <c r="B690" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="str">
-        <v>1/3/2025, 2:55:03 pm</v>
-      </c>
-      <c r="B691" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="str">
-        <v>1/3/2025, 2:55:07 pm</v>
-      </c>
-      <c r="B692" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="str">
-        <v>1/3/2025, 2:55:12 pm</v>
-      </c>
-      <c r="B693" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="str">
-        <v>1/3/2025, 2:55:16 pm</v>
-      </c>
-      <c r="B694" t="str">
-        <v>BN</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="str">
-        <v>1/3/2025, 2:55:21 pm</v>
-      </c>
-      <c r="B695" t="str">
-        <v>BN</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B695"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B685"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B695"/>
+  <dimension ref="A1:B685"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -50633,89 +49993,9 @@
         <v>RN</v>
       </c>
     </row>
-    <row r="686">
-      <c r="A686" t="str">
-        <v>1/3/2025, 2:54:41 pm</v>
-      </c>
-      <c r="B686" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="str">
-        <v>1/3/2025, 2:54:45 pm</v>
-      </c>
-      <c r="B687" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="str">
-        <v>1/3/2025, 2:54:50 pm</v>
-      </c>
-      <c r="B688" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="str">
-        <v>1/3/2025, 2:54:54 pm</v>
-      </c>
-      <c r="B689" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="str">
-        <v>1/3/2025, 2:54:58 pm</v>
-      </c>
-      <c r="B690" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="str">
-        <v>1/3/2025, 2:55:03 pm</v>
-      </c>
-      <c r="B691" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="str">
-        <v>1/3/2025, 2:55:07 pm</v>
-      </c>
-      <c r="B692" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="str">
-        <v>1/3/2025, 2:55:12 pm</v>
-      </c>
-      <c r="B693" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="str">
-        <v>1/3/2025, 2:55:16 pm</v>
-      </c>
-      <c r="B694" t="str">
-        <v>RN</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="str">
-        <v>1/3/2025, 2:55:21 pm</v>
-      </c>
-      <c r="B695" t="str">
-        <v>RN</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B695"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B685"/>
   </ignoredErrors>
 </worksheet>
 </file>